--- a/results/robust/Stability Results.xlsx
+++ b/results/robust/Stability Results.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stability Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="std_results" localSheetId="0">Sheet1!$A$1:$C$32</definedName>
+    <definedName name="stability_factor" localSheetId="0">'Stability Results'!$F$2:$I$11</definedName>
+    <definedName name="stability_sos2" localSheetId="0">'Stability Results'!$A$2:$D$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,9 +29,20 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="std_results" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust\std_results.csv" thousands=" " semicolon="1">
-      <textFields count="3">
+  <connection id="1" name="stability_factor" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust\stability_factor.csv" thousands=" " comma="1" semicolon="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="stability_sos2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust\stability_sos2.csv" thousands=" " comma="1" semicolon="1">
+      <textFields count="4">
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -41,15 +53,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>SOS2</t>
+  </si>
   <si>
     <t>scenarios</t>
   </si>
   <si>
-    <t>stdev</t>
+    <t>oil mean</t>
   </si>
   <si>
-    <t>mean</t>
+    <t>oil std</t>
+  </si>
+  <si>
+    <t>factor</t>
   </si>
 </sst>
 </file>
@@ -139,8 +157,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nb-NO"/>
-              <a:t>Stability</a:t>
+              <a:t>Standard Deviation</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="nb-NO" baseline="0"/>
+              <a:t> of Objective Value</a:t>
+            </a:r>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -178,11 +201,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>SOS2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -209,10 +235,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>'Stability Results'!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -229,192 +255,169 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$32</c:f>
+              <c:f>'Stability Results'!$D$3:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.1518908454888399</c:v>
+                  <c:v>3.2341562001378299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.80362166509648</c:v>
+                  <c:v>3.3961356866535701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.20697490199416</c:v>
+                  <c:v>3.2076478783936402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9340541513816001</c:v>
+                  <c:v>3.8097168275727298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9982250766112299</c:v>
+                  <c:v>3.7986341250206301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9424228333122699</c:v>
+                  <c:v>4.5197247251531101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8057904648660199</c:v>
+                  <c:v>4.50996650899675</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.22469187229999</c:v>
+                  <c:v>4.7828447705233099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0142750808149499</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0355628210935399</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.35981965241098</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5453516771137799</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.6514821030592</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0576293614319798</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.7762073600461399</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.7293639570202901</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.373426682282</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.1292991034651099</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.72671859362806</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.83177315313324</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.4045235432454302</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.1070844767677599</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.9858831299892099</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.53928826713679</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.0850273606952801</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.2947539725055299</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.9511634343292601</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.4717713152772001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.31429080543022</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9491351896520301</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.0468144714145899</c:v>
+                  <c:v>3.5992915531329701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C83-4953-A3BE-9DE88876A6A7}"/>
+              <c16:uniqueId val="{00000000-36B4-4B45-B199-660B9DC19A89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Factor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stability Results'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stability Results'!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.9440969185749299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.95400565279091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.67123934687609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.57525511623317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5916908316154501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4226683959622199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1834565951085501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.19525688469618</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82893508454706299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-36B4-4B45-B199-660B9DC19A89}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -426,11 +429,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="657730536"/>
-        <c:axId val="657734472"/>
+        <c:axId val="450631112"/>
+        <c:axId val="450634392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="657730536"/>
+        <c:axId val="450631112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -450,6 +453,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -487,12 +546,12 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657734472"/>
+        <c:crossAx val="450634392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="657734472"/>
+        <c:axId val="450634392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -512,6 +571,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Std</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -549,7 +664,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657730536"/>
+        <c:crossAx val="450631112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -561,6 +676,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -613,6 +760,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>Mean Objective Value</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -647,21 +819,13 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mean</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>SOS2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -689,10 +853,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>'Stability Results'!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -709,192 +873,169 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$32</c:f>
+              <c:f>'Stability Results'!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>102.419704287012</c:v>
+                  <c:v>139.779212993443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.34241856796601</c:v>
+                  <c:v>138.058295113036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.755307968035098</c:v>
+                  <c:v>137.47700140846999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.445453222082506</c:v>
+                  <c:v>136.672837623992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.693756807436998</c:v>
+                  <c:v>136.15243376499299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.789060171369698</c:v>
+                  <c:v>133.503746870892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.449954322495998</c:v>
+                  <c:v>131.92226890838799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.953507060498495</c:v>
+                  <c:v>130.54077735414199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.242825748883504</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>96.012486873523898</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94.060510590897394</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>94.624173689609606</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>93.624322077573595</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>94.628676629361607</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>93.115603158367506</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>93.417767064385302</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>91.922724540927405</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>92.445635950930793</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>92.330758508267493</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>93.625427652448806</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>92.833414542650701</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>91.740505872930498</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>93.484286730472803</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>92.942567188198893</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>92.943587263097001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>90.429418692472794</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>91.670734661360797</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>92.480734300743606</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>92.551946722682999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>90.474059264295803</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>90.969096314750104</c:v>
+                  <c:v>127.04167916940899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-28BE-4918-8E26-2BFBABB67878}"/>
+              <c16:uniqueId val="{00000000-5B31-4E66-8255-9560913275EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Factor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Stability Results'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Stability Results'!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>118.167914799283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.799490369076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.91765959186201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.79916168026701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.237679273146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112.775823557862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.589387379589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.992885264374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110.750444589072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B31-4E66-8255-9560913275EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -906,11 +1047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="651797072"/>
-        <c:axId val="651795432"/>
+        <c:axId val="637090408"/>
+        <c:axId val="637090736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="651797072"/>
+        <c:axId val="637090408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,6 +1071,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -967,14 +1164,15 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651795432"/>
+        <c:crossAx val="637090736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="651795432"/>
+        <c:axId val="637090736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="105"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -992,6 +1190,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Mean Oil</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1029,7 +1283,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651797072"/>
+        <c:crossAx val="637090408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1041,6 +1295,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2195,19 +2481,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2225,19 +2511,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2256,7 +2542,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="std_results" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stability_factor" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stability_sos2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2522,372 +2812,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>1.1518908454888399</v>
-      </c>
-      <c r="C2">
-        <v>102.419704287012</v>
+      <c r="C3">
+        <v>139.779212993443</v>
+      </c>
+      <c r="D3">
+        <v>3.2341562001378299</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>118.167914799283</v>
+      </c>
+      <c r="I3">
+        <v>1.9440969185749299</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>20</v>
       </c>
-      <c r="B3">
-        <v>1.80362166509648</v>
-      </c>
-      <c r="C3">
-        <v>100.34241856796601</v>
+      <c r="C4">
+        <v>138.058295113036</v>
+      </c>
+      <c r="D4">
+        <v>3.3961356866535701</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>116.799490369076</v>
+      </c>
+      <c r="I4">
+        <v>1.95400565279091</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>30</v>
       </c>
-      <c r="B4">
-        <v>2.20697490199416</v>
-      </c>
-      <c r="C4">
-        <v>97.755307968035098</v>
+      <c r="C5">
+        <v>137.47700140846999</v>
+      </c>
+      <c r="D5">
+        <v>3.2076478783936402</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>115.91765959186201</v>
+      </c>
+      <c r="I5">
+        <v>1.67123934687609</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>40</v>
       </c>
-      <c r="B5">
-        <v>1.9340541513816001</v>
-      </c>
-      <c r="C5">
-        <v>96.445453222082506</v>
+      <c r="C6">
+        <v>136.672837623992</v>
+      </c>
+      <c r="D6">
+        <v>3.8097168275727298</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>114.79916168026701</v>
+      </c>
+      <c r="I6">
+        <v>1.57525511623317</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>50</v>
       </c>
-      <c r="B6">
-        <v>1.9982250766112299</v>
-      </c>
-      <c r="C6">
-        <v>97.693756807436998</v>
+      <c r="C7">
+        <v>136.15243376499299</v>
+      </c>
+      <c r="D7">
+        <v>3.7986341250206301</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>114.237679273146</v>
+      </c>
+      <c r="I7">
+        <v>1.5916908316154501</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>1.9424228333122699</v>
-      </c>
-      <c r="C7">
-        <v>97.789060171369698</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>133.503746870892</v>
+      </c>
+      <c r="D8">
+        <v>4.5197247251531101</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>112.775823557862</v>
+      </c>
+      <c r="I8">
+        <v>1.4226683959622199</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>1.8057904648660199</v>
-      </c>
-      <c r="C8">
-        <v>96.449954322495998</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>131.92226890838799</v>
+      </c>
+      <c r="D9">
+        <v>4.50996650899675</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>150</v>
+      </c>
+      <c r="H9">
+        <v>112.589387379589</v>
+      </c>
+      <c r="I9">
+        <v>1.1834565951085501</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>80</v>
-      </c>
-      <c r="B9">
-        <v>2.22469187229999</v>
-      </c>
-      <c r="C9">
-        <v>95.953507060498495</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>130.54077735414199</v>
+      </c>
+      <c r="D10">
+        <v>4.7828447705233099</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10">
+        <v>111.992885264374</v>
+      </c>
+      <c r="I10">
+        <v>1.19525688469618</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>90</v>
-      </c>
-      <c r="B10">
-        <v>2.0142750808149499</v>
-      </c>
-      <c r="C10">
-        <v>96.242825748883504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>2.0355628210935399</v>
+        <v>500</v>
       </c>
       <c r="C11">
-        <v>96.012486873523898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>110</v>
-      </c>
-      <c r="B12">
-        <v>1.35981965241098</v>
-      </c>
-      <c r="C12">
-        <v>94.060510590897394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>120</v>
-      </c>
-      <c r="B13">
-        <v>2.5453516771137799</v>
-      </c>
-      <c r="C13">
-        <v>94.624173689609606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>130</v>
-      </c>
-      <c r="B14">
-        <v>3.6514821030592</v>
-      </c>
-      <c r="C14">
-        <v>93.624322077573595</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>140</v>
-      </c>
-      <c r="B15">
-        <v>2.0576293614319798</v>
-      </c>
-      <c r="C15">
-        <v>94.628676629361607</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>150</v>
-      </c>
-      <c r="B16">
-        <v>2.7762073600461399</v>
-      </c>
-      <c r="C16">
-        <v>93.115603158367506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>160</v>
-      </c>
-      <c r="B17">
-        <v>1.7293639570202901</v>
-      </c>
-      <c r="C17">
-        <v>93.417767064385302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>170</v>
-      </c>
-      <c r="B18">
-        <v>3.373426682282</v>
-      </c>
-      <c r="C18">
-        <v>91.922724540927405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>180</v>
-      </c>
-      <c r="B19">
-        <v>2.1292991034651099</v>
-      </c>
-      <c r="C19">
-        <v>92.445635950930793</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>190</v>
-      </c>
-      <c r="B20">
-        <v>1.72671859362806</v>
-      </c>
-      <c r="C20">
-        <v>92.330758508267493</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>200</v>
-      </c>
-      <c r="B21">
-        <v>1.83177315313324</v>
-      </c>
-      <c r="C21">
-        <v>93.625427652448806</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>210</v>
-      </c>
-      <c r="B22">
-        <v>2.4045235432454302</v>
-      </c>
-      <c r="C22">
-        <v>92.833414542650701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>220</v>
-      </c>
-      <c r="B23">
-        <v>3.1070844767677599</v>
-      </c>
-      <c r="C23">
-        <v>91.740505872930498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>230</v>
-      </c>
-      <c r="B24">
-        <v>2.9858831299892099</v>
-      </c>
-      <c r="C24">
-        <v>93.484286730472803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>240</v>
-      </c>
-      <c r="B25">
-        <v>1.53928826713679</v>
-      </c>
-      <c r="C25">
-        <v>92.942567188198893</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>250</v>
-      </c>
-      <c r="B26">
-        <v>1.0850273606952801</v>
-      </c>
-      <c r="C26">
-        <v>92.943587263097001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>260</v>
-      </c>
-      <c r="B27">
-        <v>2.2947539725055299</v>
-      </c>
-      <c r="C27">
-        <v>90.429418692472794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>270</v>
-      </c>
-      <c r="B28">
-        <v>1.9511634343292601</v>
-      </c>
-      <c r="C28">
-        <v>91.670734661360797</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>280</v>
-      </c>
-      <c r="B29">
-        <v>1.4717713152772001</v>
-      </c>
-      <c r="C29">
-        <v>92.480734300743606</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>290</v>
-      </c>
-      <c r="B30">
-        <v>2.31429080543022</v>
-      </c>
-      <c r="C30">
-        <v>92.551946722682999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>300</v>
-      </c>
-      <c r="B31">
-        <v>2.9491351896520301</v>
-      </c>
-      <c r="C31">
-        <v>90.474059264295803</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>310</v>
-      </c>
-      <c r="B32">
-        <v>3.0468144714145899</v>
-      </c>
-      <c r="C32">
-        <v>90.969096314750104</v>
+        <v>127.04167916940899</v>
+      </c>
+      <c r="D11">
+        <v>3.5992915531329701</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
+        <v>110.750444589072</v>
+      </c>
+      <c r="I11">
+        <v>0.82893508454706299</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/results/robust/Stability Results.xlsx
+++ b/results/robust/Stability Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arntgm\GitHub\OilOpt\results\robust\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2511,14 +2511,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>90486</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2814,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/robust/Stability Results.xlsx
+++ b/results/robust/Stability Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arntgm\GitHub\OilOpt\results\robust\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2542,11 +2542,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stability_factor" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stability_sos2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stability_sos2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stability_factor" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2814,7 +2814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
